--- a/biology/Zoologie/Aparallactus_capensis/Aparallactus_capensis.xlsx
+++ b/biology/Zoologie/Aparallactus_capensis/Aparallactus_capensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aparallactus capensis est une espèce de serpents de la famille des Lamprophiidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aparallactus capensis est une espèce de serpents de la famille des Lamprophiidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Afrique du Sud ;
 au Swaziland ;
 au Botswana ;
@@ -552,9 +566,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (12 février 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (12 février 2014) :
 Aparallactus capensis bocagei Boulenger, 1895
 Aparallactus capensis capensis Smith, 1849
 Aparallactus capensis luebberti Sternfeld, 1910
@@ -586,9 +602,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un serpent venimeux[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un serpent venimeux.
 </t>
         </is>
       </c>
@@ -617,9 +635,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, composé de cap et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, la province du Cap. La sous-espèce Aparallactus capensis bocagei est nommée en l'honneur de José Vicente Barbosa du Bocage[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, composé de cap et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, la province du Cap. La sous-espèce Aparallactus capensis bocagei est nommée en l'honneur de José Vicente Barbosa du Bocage.
 </t>
         </is>
       </c>
@@ -648,7 +668,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Boulenger, 1895 : Descriptions of two new snakes from Usambara, German East Africa. Annals and magazine of natural history, sér. 6, vol. 16, p. 171-173 (texte intégral).
 (en) Smith, 1849 : Illustrations of the zoology of South Africa, consisting chiefly of figures and descriptions of the objects of natural history collected during an expedition into the interior of South Africa, in the years 1834, 1835, and 1836; fitted out by "The Cape of Good Hope Association for Exploring Central Africa" : together with a summary of African zoology, and an inquiry into the geographical ranges of species in that quarter of the globe, vol. 3, Appendix.
